--- a/Finished/Scheels/Scheels UCC128 Label Request 019725323 01.29.2025.xlsx
+++ b/Finished/Scheels/Scheels UCC128 Label Request 019725323 01.29.2025.xlsx
@@ -1034,7 +1034,9 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="I14" s="27" t="n"/>
+      <c r="I14" s="41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" ht="18.75" customHeight="1">
       <c r="A15" s="41" t="inlineStr">
@@ -1069,7 +1071,9 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="I15" s="27" t="n"/>
+      <c r="I15" s="41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="41" t="inlineStr">
@@ -1104,7 +1108,9 @@
           <t>NA</t>
         </is>
       </c>
-      <c r="I16" s="27" t="n"/>
+      <c r="I16" s="41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="25" t="n"/>
